--- a/biology/Médecine/Joseph_Guérin/Joseph_Guérin.xlsx
+++ b/biology/Médecine/Joseph_Guérin/Joseph_Guérin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Gu%C3%A9rin</t>
+          <t>Joseph_Guérin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Guérin (1775 - 1850) est un médecin et naturaliste vauclusien, ancien administrateur du Musée Calvet à Avignon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Gu%C3%A9rin</t>
+          <t>Joseph_Guérin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Xavier Bénézet Guérin est né à Avignon le 21 août 1775 et décédé à Visan, dans le Vaucluse, le 18 avril 1850 (à 74 ans). Il a été médecin et naturaliste. Sa thèse de médecine, à l'université de Montpellier, étudiait déjà le Vaucluse : « Fragments d'une topographie physique et médicale du département de Vaucluse ». Très liée à la vie culturelle avignonnaise, il a géré le Musée Calvet, de 1817 à 1823, en tant qu'administrateur, et de 1823 à 1838, en tant que conservateur. Il a été également membre de l'Académie de Vaucluse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Xavier Bénézet Guérin est né à Avignon le 21 août 1775 et décédé à Visan, dans le Vaucluse, le 18 avril 1850 (à 74 ans). Il a été médecin et naturaliste. Sa thèse de médecine, à l'université de Montpellier, étudiait déjà le Vaucluse : « Fragments d'une topographie physique et médicale du département de Vaucluse ». Très liée à la vie culturelle avignonnaise, il a géré le Musée Calvet, de 1817 à 1823, en tant qu'administrateur, et de 1823 à 1838, en tant que conservateur. Il a été également membre de l'Académie de Vaucluse.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Gu%C3%A9rin</t>
+          <t>Joseph_Guérin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Discours sur l'histoire d'Avignon; suivi d'un aperçu sur l'état ancien et moderne de cette ville, et sur les monuments et les objets qui peuvent fixer l'attention des voyageurs, Avignon, 1807
 Description de la fontaine de Vaucluse, Avignon, 1813
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph_Gu%C3%A9rin</t>
+          <t>Joseph_Guérin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
